--- a/docs/Requisitos/Quadro_Funcionalidades.xlsx
+++ b/docs/Requisitos/Quadro_Funcionalidades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizleao/Google Drive/Mestrado/despesasMedicasKirn/doc/Requisitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizleao/Google Drive/Mestrado/despesasMedicasKirn/docs/Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4658EB-BC8A-E44E-A8ED-F27F51B841F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFC6F13-29F8-FA45-8831-088485568E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{B60EF89D-7156-6347-8FA5-B41C23FB7FB0}"/>
   </bookViews>
@@ -32,9 +32,182 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
+  <si>
+    <r>
+      <t>Classe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Entidade</t>
+    </r>
+  </si>
+  <si>
+    <t>Função / Método</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Parâmetros</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Gerado</t>
+  </si>
+  <si>
+    <t>Fatura</t>
+  </si>
+  <si>
+    <t>inserir</t>
+  </si>
+  <si>
+    <t>Cadastrar uma Fatura</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadro de Funcionalidades </t>
+  </si>
+  <si>
+    <t>REQ017_UC03</t>
+  </si>
+  <si>
+    <t>REQ017_UC04</t>
+  </si>
+  <si>
+    <t>REQ017_UC05</t>
+  </si>
+  <si>
+    <t>REQ017_UC08</t>
+  </si>
+  <si>
+    <t>REQ017_UC09</t>
+  </si>
+  <si>
+    <t>REQ017_UC10</t>
+  </si>
+  <si>
+    <t>REQ017_UC11</t>
+  </si>
+  <si>
+    <t>REQ017_UC12</t>
+  </si>
+  <si>
+    <t>REQ017_UC13</t>
+  </si>
+  <si>
+    <t>REQ017_UC14</t>
+  </si>
+  <si>
+    <t>REQ017_UC15</t>
+  </si>
+  <si>
+    <t>REQ017_UC16</t>
+  </si>
+  <si>
+    <t>REQ017_UC17</t>
+  </si>
+  <si>
+    <t>REQ017_UC18</t>
+  </si>
+  <si>
+    <t>REQ017_UC19</t>
+  </si>
+  <si>
+    <t>REQ017_UC20</t>
+  </si>
+  <si>
+    <t>REQ017_UC21</t>
+  </si>
+  <si>
+    <t>REQ017_UC22</t>
+  </si>
+  <si>
+    <t>REQ017_UC23</t>
+  </si>
+  <si>
+    <t>REQ017_UC24</t>
+  </si>
+  <si>
+    <t>REQ017_UC25</t>
+  </si>
+  <si>
+    <t>REQ017_UC26</t>
+  </si>
+  <si>
+    <t>REQ017_UC27</t>
+  </si>
+  <si>
+    <t>REQ017_UC28</t>
+  </si>
+  <si>
+    <t>REQ017_UC29</t>
+  </si>
+  <si>
+    <t>REQ017_UC30</t>
+  </si>
+  <si>
+    <t>REQ017_UC31</t>
+  </si>
+  <si>
+    <t>REQ017_UC32</t>
+  </si>
+  <si>
+    <t>REQ017_UC33</t>
+  </si>
+  <si>
+    <t>REQ017_UC34</t>
+  </si>
+  <si>
+    <t>REQ017_UC35</t>
+  </si>
+  <si>
+    <t>REQ017_UC36</t>
+  </si>
+  <si>
+    <t>REQ017_UC37</t>
+  </si>
+  <si>
+    <t>REQ017_UC38</t>
+  </si>
+  <si>
+    <t>visualizar</t>
+  </si>
+  <si>
+    <t>consultar</t>
+  </si>
+  <si>
+    <t>alterar</t>
+  </si>
+  <si>
+    <t>excluir</t>
+  </si>
+  <si>
+    <t>REQ017_UC01</t>
+  </si>
+  <si>
+    <t>REQ017_UC02</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,16 +215,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,12 +266,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,6 +324,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA038B1C-CB4D-6F46-B288-9D9F236BD2B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="63500"/>
+          <a:ext cx="736600" cy="654756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +678,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9110B6C-2BFF-644D-ACB7-E28FEFE23A40}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>